--- a/bom/a2000Serotina.xlsx
+++ b/bom/a2000Serotina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\a2000Serotina\a2000Serotina\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3D346-B278-4932-9A45-5E160261E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834900C4-47AA-4D27-B978-FEF80ED81775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="31455" windowHeight="17445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="1905" windowWidth="31455" windowHeight="17445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouser" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>D_DO-35_SOD27_P7.62mm_Horizontal</t>
   </si>
   <si>
-    <t>806-KCDX-5S-S2</t>
-  </si>
-  <si>
-    <t>603-CFR-25JT-52-150R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> R_Axial_DIN0207_L6.3mm_D2.5mm_P7.62mm_Horizontal</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>MX1 - MX105</t>
+  </si>
+  <si>
+    <t>538-90121-0766</t>
+  </si>
+  <si>
+    <t>603-CFR-25JR-52150R</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -674,16 +674,16 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1">
         <v>150</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -693,13 +693,13 @@
         <v>105</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>9</v>
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>9</v>
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -750,16 +750,16 @@
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -769,16 +769,16 @@
         <v>105</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -924,16 +924,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -941,19 +941,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/bom/a2000Serotina.xlsx
+++ b/bom/a2000Serotina.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\a2000Serotina\a2000Serotina\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834900C4-47AA-4D27-B978-FEF80ED81775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BB3CAC-3639-451A-AA58-D3B4D87C6E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1905" windowWidth="31455" windowHeight="17445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouser" sheetId="1" r:id="rId1"/>
     <sheet name="Other Sources" sheetId="3" r:id="rId2"/>
+    <sheet name="Other Switch options" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>Sourced</t>
   </si>
@@ -68,15 +69,6 @@
     <t>Teensy++ 2.0</t>
   </si>
   <si>
-    <t>575-1104764041001000</t>
-  </si>
-  <si>
-    <t>40 Pin Socket</t>
-  </si>
-  <si>
-    <t>40P_2Row_Pitch2.54 mm</t>
-  </si>
-  <si>
     <t>78-TLHK42T1U2</t>
   </si>
   <si>
@@ -95,24 +87,9 @@
     <t>J1</t>
   </si>
   <si>
-    <t>5 Pin Din</t>
-  </si>
-  <si>
-    <t>KCDX5SS2</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://kbdfans.com/products/cherry-original-pcb-stabilizers</t>
-  </si>
-  <si>
-    <t>MX16, MX18</t>
-  </si>
-  <si>
-    <t>2u</t>
-  </si>
-  <si>
     <t>https://hobbycomponents.com/connectors/439-01-254mm-40way-sil-turned-pin-m-m-headers-pack-of-5</t>
   </si>
   <si>
@@ -131,15 +108,9 @@
     <t>540-MX1A-11NW</t>
   </si>
   <si>
-    <t>R1 - R12</t>
-  </si>
-  <si>
     <t>D1 - D105</t>
   </si>
   <si>
-    <t>LED1 - LED8, MX7, MX11, MX33 + MX69</t>
-  </si>
-  <si>
     <t>MX1 - MX105</t>
   </si>
   <si>
@@ -147,13 +118,166 @@
   </si>
   <si>
     <t>603-CFR-25JR-52150R</t>
+  </si>
+  <si>
+    <t>R1 - R6, R9, R10 + R11</t>
+  </si>
+  <si>
+    <t>LED1 - LED3, LED6, MX7, MX11, MX12, MX33 + MX69</t>
+  </si>
+  <si>
+    <t>Right Angle Pin Header</t>
+  </si>
+  <si>
+    <t>6_ 2.54 mm_1_row</t>
+  </si>
+  <si>
+    <t>Build Instructions Step</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4, 5 + 6</t>
+  </si>
+  <si>
+    <t>9, 10 + 11</t>
+  </si>
+  <si>
+    <t>7 + 12</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>https://www.wasdkeyboards.com/wasd-v3-104-key-or-105-key-diy-kit.html</t>
+  </si>
+  <si>
+    <t>105-Key ISO</t>
+  </si>
+  <si>
+    <t>Case, Steel Mounting Plate</t>
+  </si>
+  <si>
+    <t>https://www.wasdkeyboards.com/105-key-iso-custom-cherry-mx-keycap-set.html</t>
+  </si>
+  <si>
+    <t>Keycaps</t>
+  </si>
+  <si>
+    <t>https://github.com/grahamshaw1972/a2000Serotina/tree/main/orderingKeycaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amazon.co.uk/dp/B00KEW1YZE/ref=cm_sw_em_r_mt_dp_1WGQXR1D324A5GNPR9FJ?_encoding=UTF8&amp;psc=1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Pin DIN Cable </t>
+  </si>
+  <si>
+    <t>https://amazon.co.uk/gp/product/B07K8FFDYJ/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Costar Stabilizers</t>
+  </si>
+  <si>
+    <t>7 x 2u + 1 x 6.25u</t>
+  </si>
+  <si>
+    <t>MX44, MX26, MX28, MX58, MX97, MX103 + MX45</t>
+  </si>
+  <si>
+    <t>Only need 6 x 2u, one is spare</t>
+  </si>
+  <si>
+    <t>21 + 22</t>
+  </si>
+  <si>
+    <t>8, 9, 10, 11, 13, 20 + 23</t>
+  </si>
+  <si>
+    <t>22 + 24</t>
+  </si>
+  <si>
+    <t>14 - 17</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/product/B07QNPZDTW/ref=ppx_yo_dt_b_asin_title_o07_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Dupont Crimping Kit</t>
+  </si>
+  <si>
+    <t>Notes On Switches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB - there are many mecanical keyboard suppliers around the world. It would probably make sense to order from one in your own country if you are able to find one. </t>
+  </si>
+  <si>
+    <t>If you choose to try and re-create the feel of the Original A2000 Cherry Keyboard, then I can provide some recommendations. The keyboard came with Cherry MX Black switches. These are one of the earliest MX switches which Cherry made. Cherry MX Black switches have changed somewhat over the years. Not in design, but in materials. Many consider that the Cherry MX Black switches of today are not as smooth feeling as those of 30 years ago. 30 year old Cherry MX Black switches are now known as Vintage Blacks to make it possible to distinguish between the two and they are quite sought after. This means that just buying Cherry MX Blacks may not re-create the original feel of the keyboard as you may expect. It's certainly an option that should be considered though. You can also buy them from Mouser, along with the other components</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/CHERRY/MX1A-11NW?qs=%2Fha2pyFadugHshS5LFUawxF8LikHxVdqvZlIDJQ51wNd2Q%2F7pSE0Nw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://novelkeys.com/collections/switches/products/nk_-cream-series?variant=40598616866983</t>
+  </si>
+  <si>
+    <t>https://novelkeys.com/collections/switches/products/gateron-ink-switches</t>
+  </si>
+  <si>
+    <t>https://novelkeys.com/collections/switches/products/gateron-switches-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gateron Switches. Cheaper and most agree that they feel very similar Cherry. I used Yellow in my first build. Slightly lighter than black but still have a retro feel. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NovelKeys Cream switches. A Linear switch with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>smooth feel, similar weight to Vintage Cherry MX Blacks</t>
+    </r>
+  </si>
+  <si>
+    <t>Cost for 105 switches</t>
+  </si>
+  <si>
+    <t>Modern Cherry MX Black Switches. Probably cheaper from other suppliers</t>
+  </si>
+  <si>
+    <t>Gateron Ink Switches. A Linear switch with a smooth feel. I plan to use Ink Yellows for my second build</t>
+  </si>
+  <si>
+    <t>The Original A2000 Cherry Keyboard uses Cherry MX switches. These have since become the most common switch used in Mechanical Keyboards. Most Cherry MX switches come in two different varieties, Plate mount and PCB mount. We need Plate mount for this project*. That still leaves a very wide field of switches available Which switch you choose therefore comes down to personal choice.</t>
+  </si>
+  <si>
+    <t>*You can convert PCB mount switches into Plate mount switches by clipping off the plastic mounting lugs with side cutters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$USD]\ #,##0.00"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -208,6 +332,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -236,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,9 +407,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -292,6 +419,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,11 +779,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -640,9 +795,10 @@
     <col min="5" max="5" width="67.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -664,20 +820,23 @@
       <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H1" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1">
         <v>150</v>
@@ -685,8 +844,11 @@
       <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6">
@@ -696,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>12</v>
@@ -704,8 +866,11 @@
       <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -723,18 +888,21 @@
       <c r="G4" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>16</v>
@@ -742,62 +910,52 @@
       <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>25</v>
+      <c r="H7" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -811,9 +969,9 @@
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A7">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH(("x"),(A8))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("x"),(A7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
@@ -826,39 +984,29 @@
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
+      <formula>LEN(TRIM(A7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH(("x"),(A5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsBlanks" dxfId="7" priority="12">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
-      <formula>LEN(TRIM(A8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH(("x"),(A6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH(("x"),(A7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="containsBlanks" dxfId="2" priority="4">
-      <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -871,25 +1019,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -900,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -912,10 +1062,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -923,37 +1076,120 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>28</v>
+      <c r="D2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="21">
+        <v>52</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>34</v>
+      <c r="F3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="20">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -968,10 +1204,181 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3ED5529B-75C4-47B8-911B-C049E776D237}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{96E8A602-3766-4E44-875A-D74179B25C38}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{96E8A602-3766-4E44-875A-D74179B25C38}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{E6C5AD8A-8B91-436C-AA3A-230944979E51}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{B50BBCF1-77F4-4CBB-A175-58540D8C1ACD}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{9C629389-226C-478A-A816-1EB2D8F739BA}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{2533614E-C123-4B02-9360-8D7F696F158A}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{1AA4A57E-0931-44CE-BD59-252614C121EA}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{BC9D95B7-8A99-4A0C-9D11-C4AFA98F5965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DF9DCF-B1B7-490A-AAEA-375F30DB2334}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="108.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="32"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="32"/>
+    </row>
+    <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="32"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="34">
+        <v>72.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="32"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="32"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="32">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="32"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="32">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="32"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="32"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="32"/>
+    </row>
+    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="32"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{1AEC3069-10DC-4C85-94DA-674F9B85B9F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bom/a2000Serotina.xlsx
+++ b/bom/a2000Serotina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\a2000Serotina\a2000Serotina\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BB3CAC-3639-451A-AA58-D3B4D87C6E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0698BED-2488-4FF7-AE40-9B2830B20EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouser" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>Sourced</t>
   </si>
@@ -269,13 +269,25 @@
   <si>
     <t>*You can convert PCB mount switches into Plate mount switches by clipping off the plastic mounting lugs with side cutters</t>
   </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Hobby Components</t>
+  </si>
+  <si>
+    <t>WASD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$USD]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -287,11 +299,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -443,16 +457,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -506,22 +520,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE599"/>
           <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -781,7 +779,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -960,27 +958,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH(("x"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="containsBlanks" dxfId="12" priority="16">
+    <cfRule type="containsBlanks" dxfId="10" priority="16">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH(("x"),(A7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH(("x"),(A4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsBlanks" dxfId="9" priority="14">
+    <cfRule type="containsBlanks" dxfId="7" priority="14">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1019,11 +1017,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1031,15 +1029,16 @@
     <col min="1" max="1" width="7.42578125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="105" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="49.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="49.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1050,25 +1049,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1076,119 +1078,137 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="20">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="20">
+      <c r="J3" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="20">
         <v>15</v>
       </c>
     </row>
@@ -1204,13 +1224,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{96E8A602-3766-4E44-875A-D74179B25C38}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{E6C5AD8A-8B91-436C-AA3A-230944979E51}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{B50BBCF1-77F4-4CBB-A175-58540D8C1ACD}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{9C629389-226C-478A-A816-1EB2D8F739BA}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{2533614E-C123-4B02-9360-8D7F696F158A}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{1AA4A57E-0931-44CE-BD59-252614C121EA}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{BC9D95B7-8A99-4A0C-9D11-C4AFA98F5965}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{96E8A602-3766-4E44-875A-D74179B25C38}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{E6C5AD8A-8B91-436C-AA3A-230944979E51}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{B50BBCF1-77F4-4CBB-A175-58540D8C1ACD}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{9C629389-226C-478A-A816-1EB2D8F739BA}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{2533614E-C123-4B02-9360-8D7F696F158A}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{1AA4A57E-0931-44CE-BD59-252614C121EA}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{BC9D95B7-8A99-4A0C-9D11-C4AFA98F5965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/bom/a2000Serotina.xlsx
+++ b/bom/a2000Serotina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\a2000Serotina\a2000Serotina\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0698BED-2488-4FF7-AE40-9B2830B20EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6948FF-60E6-4384-AECA-5CAE531BB1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouser" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Sourced</t>
   </si>
@@ -132,24 +132,6 @@
     <t>6_ 2.54 mm_1_row</t>
   </si>
   <si>
-    <t>Build Instructions Step</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4, 5 + 6</t>
-  </si>
-  <si>
-    <t>9, 10 + 11</t>
-  </si>
-  <si>
-    <t>7 + 12</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>https://www.wasdkeyboards.com/wasd-v3-104-key-or-105-key-diy-kit.html</t>
   </si>
   <si>
@@ -187,18 +169,6 @@
   </si>
   <si>
     <t>Only need 6 x 2u, one is spare</t>
-  </si>
-  <si>
-    <t>21 + 22</t>
-  </si>
-  <si>
-    <t>8, 9, 10, 11, 13, 20 + 23</t>
-  </si>
-  <si>
-    <t>22 + 24</t>
-  </si>
-  <si>
-    <t>14 - 17</t>
   </si>
   <si>
     <t>https://www.amazon.co.uk/gp/product/B07QNPZDTW/ref=ppx_yo_dt_b_asin_title_o07_s00?ie=UTF8&amp;psc=1</t>
@@ -380,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,15 +401,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -777,11 +738,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -793,10 +754,9 @@
     <col min="5" max="5" width="67.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -818,11 +778,8 @@
       <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,11 +799,8 @@
       <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6">
@@ -864,11 +818,8 @@
       <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -886,11 +837,8 @@
       <c r="G4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
@@ -908,11 +856,8 @@
       <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8">
@@ -930,11 +875,8 @@
       <c r="G6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8">
@@ -951,9 +893,6 @@
       </c>
       <c r="G7" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1017,11 +956,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1035,10 +974,9 @@
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="49.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>21</v>
@@ -1066,11 +1004,8 @@
       <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1079,33 +1014,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="20">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>22</v>
@@ -1122,94 +1054,79 @@
       <c r="I3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="20">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="20">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="20">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="20">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="20">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1249,150 +1166,150 @@
   <cols>
     <col min="1" max="1" width="108.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="32"/>
+      <c r="A1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>70</v>
+      <c r="C8" s="30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="34">
+        <v>54</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="31">
         <v>72.45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="32">
+        <v>57</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="29">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="32">
+        <v>55</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="29">
         <v>70.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="32">
+        <v>56</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="29">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/bom/a2000Serotina.xlsx
+++ b/bom/a2000Serotina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\a2000Serotina\a2000Serotina\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6948FF-60E6-4384-AECA-5CAE531BB1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB208AC-7A12-4152-B62F-5841EAEA865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +422,27 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -742,7 +763,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -751,9 +772,9 @@
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="67.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -775,7 +796,7 @@
       <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -796,7 +817,7 @@
       <c r="F2" s="1">
         <v>150</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -815,7 +836,7 @@
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -834,7 +855,7 @@
       <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -853,7 +874,7 @@
       <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="39" t="s">
         <v>17</v>
       </c>
     </row>
@@ -872,7 +893,7 @@
       <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="39" t="s">
         <v>19</v>
       </c>
     </row>
@@ -891,7 +912,7 @@
       <c r="F7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -947,7 +968,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -960,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -969,11 +990,11 @@
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="49.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1001,7 +1022,7 @@
       <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1028,7 +1049,7 @@
       <c r="H2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="34" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1051,7 +1072,7 @@
       <c r="H3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1088,7 +1109,7 @@
       <c r="H5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="37" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1108,7 +1129,7 @@
       <c r="H6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1125,7 +1146,7 @@
       <c r="F7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="35" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1150,7 +1171,7 @@
     <hyperlink ref="E7" r:id="rId7" xr:uid="{BC9D95B7-8A99-4A0C-9D11-C4AFA98F5965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>
 
